--- a/results/FrequencyTables/26990633_Gag-A.xlsx
+++ b/results/FrequencyTables/26990633_Gag-A.xlsx
@@ -465,49 +465,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00653398873036806</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00641409902889342</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00737321664069056</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>0.999280661791152</v>
       </c>
       <c r="G2">
-        <v>0.09</v>
+        <v>0.101426687447548</v>
       </c>
       <c r="H2">
-        <v>0.85</v>
+        <v>0.974523438436638</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000179834552211965</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.0787675338688407</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>0.996942812612397</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00035966910442393</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.976141949406546</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00167845582064501</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999760220597051</v>
       </c>
       <c r="P2">
-        <v>0.84</v>
+        <v>0.867761659273468</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -516,22 +516,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.983155496942813</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.99910082723894</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000899172761059825</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00749310634216521</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000299724253686608</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00035966910442393</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000119889701474643</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.95971706030452</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.999880110298525</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000179834552211965</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="H3">
-        <v>0.13</v>
+        <v>0.011929025296727</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000179834552211965</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000239779402949287</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00203812492506894</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0363265795468169</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.999700275746313</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00185829037285697</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000419613955161252</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000119889701474643</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.993226231866683</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.993466011269632</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000659393358110538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.000419613955161252</v>
       </c>
       <c r="G4">
-        <v>0.91</v>
+        <v>0.895396235463374</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00929145186428486</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000119889701474643</v>
       </c>
       <c r="J4">
-        <v>0.96</v>
+        <v>0.918235223594293</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.000539503656635895</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.99910082723894</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0225392638772329</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.998261599328618</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000239779402949287</v>
       </c>
       <c r="P4">
-        <v>0.14</v>
+        <v>0.083683011629301</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00377652559645126</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000239779402949287</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.999040882388203</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.991967390001199</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.999520441194101</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.999460496343364</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -693,31 +693,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0308116532789833</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000119889701474643</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02</v>
+        <v>0.00347680134276466</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.999400551492627</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000419613955161252</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00035966910442393</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000299724253686608</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -729,31 +729,31 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.02</v>
+        <v>0.00923150701354754</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000239779402949287</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0100107900731327</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000119889701474643</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>5.99448507373217e-05</v>
       </c>
     </row>
   </sheetData>
